--- a/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/NhapTangCaNgoaiLe_SK1.xlsx
+++ b/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/NhapTangCaNgoaiLe_SK1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCodeHR\SnK_Dev\SmartBooks.HumanResource\bin\x86\Debug\Teamleate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BA95AB-95AE-413A-BE70-307ECF24A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77826F3D-3DC8-4DED-9C28-CA36276B2EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -157,11 +157,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -471,15 +536,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
@@ -567,10 +634,81 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B11:B2000">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>WEEKDAY(B11,2)=7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>